--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_1_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_1_sine_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.97000000000015</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.694996984160544e-16</v>
+        <v>1.797932023684464e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>45.88760557440607</v>
+        <v>43.01969945747804</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[40.616708785456126, 51.15850236335601]</t>
+          <t>[37.79533019855198, 48.2440687164041]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -603,7 +603,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.5786581702723481, 1.8302371615508104]</t>
+          <t>[1.5786581702723472, 1.8302371615508113]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>55.57972460156237</v>
+        <v>52.04031647426044</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[52.2085494362459, 58.950899766878834]</t>
+          <t>[48.820334019891746, 55.260298928629126]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.73889889889901</v>
+        <v>16.60044044044053</v>
       </c>
       <c r="X2" t="n">
-        <v>16.27903903903914</v>
+        <v>16.14438438438447</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.19875875875887</v>
+        <v>17.05649649649659</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.80000000000059</v>
+        <v>25.75000000000059</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,18 +661,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.694996984160544e-16</v>
+        <v>1.797932023684464e-16</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5475591068804306</v>
+        <v>0.1247074164350164</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>45.46130602466168</v>
+        <v>42.4471994568849</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[40.033093075159094, 50.88951897416427]</t>
+          <t>[36.69561523090423, 48.19878368286556]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -682,25 +682,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.07547369738353815</v>
+        <v>-0.1383684452031542</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.21384214258669232, 0.06289474781961601]</t>
+          <t>[-0.27673689040630833, 0.0]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.2838964944047304</v>
+        <v>0.05000000000004534</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2838964944047304</v>
+        <v>0.05000000000004534</v>
       </c>
       <c r="S3" t="n">
-        <v>54.66135304507919</v>
+        <v>54.95389049250176</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[51.09440443002347, 58.22830166013491]</t>
+          <t>[51.32877070632026, 58.57901027868325]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3099099099099156</v>
+        <v>0.5670670670670788</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.2582582582582661</v>
+        <v>-1.665334536937735e-15</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.8780780780780973</v>
+        <v>1.134134134134159</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_1_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_1_sine_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.78000000000012</v>
+        <v>22.74000000000012</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.797932023684464e-16</v>
+        <v>1.688552128707463e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>43.01969945747804</v>
+        <v>45.00677512359566</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[37.79533019855198, 48.2440687164041]</t>
+          <t>[40.188402777748166, 49.82514746944315]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.704447665911579</v>
+        <v>1.566079220708425</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.5786581702723472, 1.8302371615508113]</t>
+          <t>[1.452868674633117, 1.6792897667837332]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>52.04031647426044</v>
+        <v>56.76151941752656</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[48.820334019891746, 55.260298928629126]</t>
+          <t>[53.41510361522524, 60.10793521982787]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.60044044044053</v>
+        <v>17.07207207207216</v>
       </c>
       <c r="X2" t="n">
-        <v>16.14438438438447</v>
+        <v>16.66234234234243</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.05649649649659</v>
+        <v>17.48180180180189</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.75000000000059</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,18 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.797932023684464e-16</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.1247074164350164</v>
-      </c>
+        <v>1.688552128707463e-16</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>42.4471994568849</v>
+        <v>43.37293170893751</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[36.69561523090423, 48.19878368286556]</t>
+          <t>[36.299071277423735, 50.44679214045128]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -682,25 +680,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.1383684452031542</v>
+        <v>-0.6541053773240009</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.27673689040630833, 0.0]</t>
+          <t>[-0.8176317216550011, -0.49057903299300065]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.05000000000004534</v>
+        <v>7.283063041541027e-14</v>
       </c>
       <c r="R3" t="n">
-        <v>0.05000000000004534</v>
+        <v>7.283063041541027e-14</v>
       </c>
       <c r="S3" t="n">
-        <v>54.95389049250176</v>
+        <v>56.51865147639855</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[51.32877070632026, 58.57901027868325]</t>
+          <t>[52.915850242813896, 60.12145270998321]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5670670670670788</v>
+        <v>2.653613613613668</v>
       </c>
       <c r="X3" t="n">
-        <v>-1.665334536937735e-15</v>
+        <v>1.990210210210251</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.134134134134159</v>
+        <v>3.317017017017086</v>
       </c>
     </row>
   </sheetData>
